--- a/ipl/Royal Challengers Bangalore/AB de Villiers.xlsx
+++ b/ipl/Royal Challengers Bangalore/AB de Villiers.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -547,9 +547,241 @@
         <v>Eliminator (N), Sharjah, October 11, 2021, Indian Premier League</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>AB de Villiers</v>
+      </c>
+      <c r="B6" t="str">
+        <v>12</v>
+      </c>
+      <c r="C6" t="str">
+        <v>11</v>
+      </c>
+      <c r="D6" t="str">
+        <v>0</v>
+      </c>
+      <c r="E6" t="str">
+        <v>1</v>
+      </c>
+      <c r="F6" t="str">
+        <v>109.09</v>
+      </c>
+      <c r="G6" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="H6" t="str">
+        <v>Super Kings won by 6 wickets (with 11 balls remaining)</v>
+      </c>
+      <c r="I6" t="str">
+        <v>35th Match (N), Sharjah, September 24, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>AB de Villiers</v>
+      </c>
+      <c r="B7" t="str">
+        <v>19</v>
+      </c>
+      <c r="C7" t="str">
+        <v>13</v>
+      </c>
+      <c r="D7" t="str">
+        <v>1</v>
+      </c>
+      <c r="E7" t="str">
+        <v>1</v>
+      </c>
+      <c r="F7" t="str">
+        <v>146.15</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="H7" t="str">
+        <v>Sunrisers won by 4 runs</v>
+      </c>
+      <c r="I7" t="str">
+        <v>52nd Match (N), Abu Dhabi, October 06, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>AB de Villiers</v>
+      </c>
+      <c r="B8" t="str">
+        <v>4</v>
+      </c>
+      <c r="C8" t="str">
+        <v>1</v>
+      </c>
+      <c r="D8" t="str">
+        <v>1</v>
+      </c>
+      <c r="E8" t="str">
+        <v>0</v>
+      </c>
+      <c r="F8" t="str">
+        <v>400.00</v>
+      </c>
+      <c r="G8" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="H8" t="str">
+        <v>RCB won by 7 wickets (with 17 balls remaining)</v>
+      </c>
+      <c r="I8" t="str">
+        <v>43rd Match (N), Dubai (DSC), September 29, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>AB de Villiers</v>
+      </c>
+      <c r="B9" t="str">
+        <v>26</v>
+      </c>
+      <c r="C9" t="str">
+        <v>26</v>
+      </c>
+      <c r="D9" t="str">
+        <v>2</v>
+      </c>
+      <c r="E9" t="str">
+        <v>1</v>
+      </c>
+      <c r="F9" t="str">
+        <v>100.00</v>
+      </c>
+      <c r="G9" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+      <c r="H9" t="str">
+        <v>RCB won by 7 wickets</v>
+      </c>
+      <c r="I9" t="str">
+        <v>56th Match (N), Dubai (DSC), October 08, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>AB de Villiers</v>
+      </c>
+      <c r="B10" t="str">
+        <v>23</v>
+      </c>
+      <c r="C10" t="str">
+        <v>18</v>
+      </c>
+      <c r="D10" t="str">
+        <v>1</v>
+      </c>
+      <c r="E10" t="str">
+        <v>2</v>
+      </c>
+      <c r="F10" t="str">
+        <v>127.77</v>
+      </c>
+      <c r="G10" t="str">
+        <v>Punjab Kings</v>
+      </c>
+      <c r="H10" t="str">
+        <v>RCB won by 6 runs</v>
+      </c>
+      <c r="I10" t="str">
+        <v>48th Match, Sharjah, October 03, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>AB de Villiers</v>
+      </c>
+      <c r="B11" t="str">
+        <v>0</v>
+      </c>
+      <c r="C11" t="str">
+        <v>1</v>
+      </c>
+      <c r="D11" t="str">
+        <v>0</v>
+      </c>
+      <c r="E11" t="str">
+        <v>0</v>
+      </c>
+      <c r="F11" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="G11" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="H11" t="str">
+        <v>KKR won by 9 wickets (with 60 balls remaining)</v>
+      </c>
+      <c r="I11" t="str">
+        <v>31st Match (N), Abu Dhabi, September 20, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>AB de Villiers</v>
+      </c>
+      <c r="B12" t="str">
+        <v>11</v>
+      </c>
+      <c r="C12" t="str">
+        <v>9</v>
+      </c>
+      <c r="D12" t="str">
+        <v>1</v>
+      </c>
+      <c r="E12" t="str">
+        <v>0</v>
+      </c>
+      <c r="F12" t="str">
+        <v>122.22</v>
+      </c>
+      <c r="G12" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="H12" t="str">
+        <v>KKR won by 4 wickets (with 2 balls remaining)</v>
+      </c>
+      <c r="I12" t="str">
+        <v>Eliminator (N), Sharjah, October 11, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>AB de Villiers</v>
+      </c>
+      <c r="B13" t="str">
+        <v>11</v>
+      </c>
+      <c r="C13" t="str">
+        <v>6</v>
+      </c>
+      <c r="D13" t="str">
+        <v>1</v>
+      </c>
+      <c r="E13" t="str">
+        <v>1</v>
+      </c>
+      <c r="F13" t="str">
+        <v>183.33</v>
+      </c>
+      <c r="G13" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="H13" t="str">
+        <v>RCB won by 54 runs</v>
+      </c>
+      <c r="I13" t="str">
+        <v>39th Match (N), Dubai (DSC), September 26, 2021, Indian Premier League</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I13"/>
   </ignoredErrors>
 </worksheet>
 </file>